--- a/03 Database Design - Fleet Management.xlsx
+++ b/03 Database Design - Fleet Management.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fleet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\fleet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="779" firstSheet="26" activeTab="26"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="779" firstSheet="26" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="16" r:id="rId1"/>
@@ -12954,7 +12954,7 @@
   </sheetPr>
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
+    <sheetView topLeftCell="G13" workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
@@ -13037,7 +13037,7 @@
         <v>18</v>
       </c>
       <c r="J3" s="6" t="str">
-        <f t="shared" ref="J3:J22" si="0">IF(A3="","",CONCATENATE(A3," ",D3," COMMENT '",E3,"' ",IF(G3="Y","","NOT NULL")," ",IF(F3&lt;&gt;"",CONCATENATE("DEFAULT '",F3,"' "),IF(G3="Y","DEFAULT NULL","")),IF(A4="","",",")))</f>
+        <f t="shared" ref="J3:J21" si="0">IF(A3="","",CONCATENATE(A3," ",D3," COMMENT '",E3,"' ",IF(G3="Y","","NOT NULL")," ",IF(F3&lt;&gt;"",CONCATENATE("DEFAULT '",F3,"' "),IF(G3="Y","DEFAULT NULL","")),IF(A4="","",",")))</f>
         <v>VHI_REQ_ID INT(5) UNSIGNED COMMENT 'Auto generated number' NOT NULL ,</v>
       </c>
     </row>
@@ -16521,8 +16521,8 @@
   </sheetPr>
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21377,18 +21377,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21411,6 +21411,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9DA1927-3E16-4AC2-839E-6AA62DFE2EA7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9861295-41A4-41B0-9142-A90EFAF31CE7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -21425,12 +21433,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9DA1927-3E16-4AC2-839E-6AA62DFE2EA7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>